--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Desloratadine - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Desloratadine - all categories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="692">
   <si>
     <t>pathWeight</t>
   </si>
@@ -108,25 +108,25 @@
     <t>clarinex</t>
   </si>
   <si>
-    <t>105773530</t>
+    <t>39421678</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>39421679</t>
   </si>
   <si>
     <t>is derivative of</t>
   </si>
   <si>
-    <t>105773529</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
     <t>721922</t>
   </si>
   <si>
     <t>cytochrome p450 3a4 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862811</t>
+    <t>8472565</t>
   </si>
   <si>
     <t>does not inhibit</t>
@@ -138,10 +138,10 @@
     <t>cytochrome p450 2d6 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862808</t>
-  </si>
-  <si>
-    <t>105773539</t>
+    <t>8472562</t>
+  </si>
+  <si>
+    <t>39421688</t>
   </si>
   <si>
     <t>interacts with</t>
@@ -153,10 +153,10 @@
     <t>cytochrome p450 2c9 (homo sapiens)</t>
   </si>
   <si>
-    <t>105773537</t>
-  </si>
-  <si>
-    <t>74862802</t>
+    <t>39421686</t>
+  </si>
+  <si>
+    <t>8472558</t>
   </si>
   <si>
     <t>166343</t>
@@ -165,10 +165,10 @@
     <t>cytochrome p450 2c19 (homo sapiens)</t>
   </si>
   <si>
-    <t>105773538</t>
-  </si>
-  <si>
-    <t>74860515</t>
+    <t>8470099</t>
+  </si>
+  <si>
+    <t>39421687</t>
   </si>
   <si>
     <t>2711012</t>
@@ -177,10 +177,10 @@
     <t>cytochrome p450 1a2 (homo sapiens)</t>
   </si>
   <si>
-    <t>105773540</t>
-  </si>
-  <si>
-    <t>74863376</t>
+    <t>39421689</t>
+  </si>
+  <si>
+    <t>8473069</t>
   </si>
   <si>
     <t>1655598</t>
@@ -189,7 +189,7 @@
     <t>potassium voltage-gated channel subfamily h member 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74872017</t>
+    <t>8481072</t>
   </si>
   <si>
     <t>2805035</t>
@@ -198,7 +198,7 @@
     <t>mitogen-activated protein kinase 14 (homo sapiens)</t>
   </si>
   <si>
-    <t>74864474</t>
+    <t>8474033</t>
   </si>
   <si>
     <t>570256</t>
@@ -207,7 +207,7 @@
     <t>d(2) dopamine receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74863378</t>
+    <t>8473073</t>
   </si>
   <si>
     <t>2830404</t>
@@ -216,7 +216,7 @@
     <t>inositol monophosphatase 1 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>77386714</t>
+    <t>10963275</t>
   </si>
   <si>
     <t>does not interact with</t>
@@ -228,7 +228,7 @@
     <t>estrogen receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74860524</t>
+    <t>8470112</t>
   </si>
   <si>
     <t>74770</t>
@@ -237,7 +237,7 @@
     <t>epidermal growth factor receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74864491</t>
+    <t>8474055</t>
   </si>
   <si>
     <t>2822796</t>
@@ -246,7 +246,7 @@
     <t>prostaglandin g/h synthase 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862799</t>
+    <t>8472556</t>
   </si>
   <si>
     <t>4705381</t>
@@ -255,7 +255,7 @@
     <t>matrix metalloproteinase-9 (homo sapiens)</t>
   </si>
   <si>
-    <t>74864469</t>
+    <t>8474030</t>
   </si>
   <si>
     <t>2967053</t>
@@ -264,7 +264,7 @@
     <t>adenosine receptor a2a (homo sapiens)</t>
   </si>
   <si>
-    <t>74857231</t>
+    <t>8466790</t>
   </si>
   <si>
     <t>2829664</t>
@@ -273,7 +273,7 @@
     <t>mu-type opioid receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74862858</t>
+    <t>8472611</t>
   </si>
   <si>
     <t>693945</t>
@@ -282,7 +282,7 @@
     <t>adenosine receptor a1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74859075</t>
+    <t>8468663</t>
   </si>
   <si>
     <t>5623407</t>
@@ -291,7 +291,7 @@
     <t>delta-type opioid receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74872008</t>
+    <t>8481067</t>
   </si>
   <si>
     <t>4542606</t>
@@ -300,7 +300,7 @@
     <t>5-hydroxytryptamine receptor 1a (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74876664</t>
+    <t>8485920</t>
   </si>
   <si>
     <t>2793732</t>
@@ -309,7 +309,7 @@
     <t>kappa-type opioid receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74862856</t>
+    <t>8472610</t>
   </si>
   <si>
     <t>4716994</t>
@@ -318,7 +318,25 @@
     <t>cannabinoid receptor 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862781</t>
+    <t>8472540</t>
+  </si>
+  <si>
+    <t>490003</t>
+  </si>
+  <si>
+    <t>cyclooxygenase 1</t>
+  </si>
+  <si>
+    <t>8470096</t>
+  </si>
+  <si>
+    <t>3755212</t>
+  </si>
+  <si>
+    <t>protein kinase c alpha</t>
+  </si>
+  <si>
+    <t>8476483</t>
   </si>
   <si>
     <t>5628940</t>
@@ -327,7 +345,7 @@
     <t>carbonic anhydrase 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74860509</t>
+    <t>8470090</t>
   </si>
   <si>
     <t>212404</t>
@@ -336,22 +354,22 @@
     <t>mitogen-activated protein kinase 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74864471</t>
-  </si>
-  <si>
-    <t>545997</t>
-  </si>
-  <si>
-    <t>sodium-dependent serotonin transporter (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74864516</t>
+    <t>8474031</t>
+  </si>
+  <si>
+    <t>5661372</t>
+  </si>
+  <si>
+    <t>sodium-dependent serotonin transporter</t>
+  </si>
+  <si>
+    <t>8474079</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>74864515</t>
+    <t>8474076</t>
   </si>
   <si>
     <t>binds with</t>
@@ -363,7 +381,187 @@
     <t>transmembrane domain-containing protein tmigd3 (homo sapiens)</t>
   </si>
   <si>
-    <t>74859077</t>
+    <t>8468664</t>
+  </si>
+  <si>
+    <t>4323119</t>
+  </si>
+  <si>
+    <t>tyrosine-protein kinase lck (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8474061</t>
+  </si>
+  <si>
+    <t>4765631</t>
+  </si>
+  <si>
+    <t>beta-2 adrenergic receptors</t>
+  </si>
+  <si>
+    <t>8466804</t>
+  </si>
+  <si>
+    <t>496044</t>
+  </si>
+  <si>
+    <t>acetylcholinesterase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8466789</t>
+  </si>
+  <si>
+    <t>2986614</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamine receptor 2a (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8477470</t>
+  </si>
+  <si>
+    <t>8477468</t>
+  </si>
+  <si>
+    <t>1110022</t>
+  </si>
+  <si>
+    <t>alpha-1d adrenergic receptor (rattus norvegicus)</t>
+  </si>
+  <si>
+    <t>8477991</t>
+  </si>
+  <si>
+    <t>4394972</t>
+  </si>
+  <si>
+    <t>neutrophil elastase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8476475</t>
+  </si>
+  <si>
+    <t>2969074</t>
+  </si>
+  <si>
+    <t>estrogen receptor beta (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8470113</t>
+  </si>
+  <si>
+    <t>4528</t>
+  </si>
+  <si>
+    <t>alpha-1b adrenergic receptor (rattus norvegicus)</t>
+  </si>
+  <si>
+    <t>8466795</t>
+  </si>
+  <si>
+    <t>8466794</t>
+  </si>
+  <si>
+    <t>1571756</t>
+  </si>
+  <si>
+    <t>interstitial collagenase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8474027</t>
+  </si>
+  <si>
+    <t>746283</t>
+  </si>
+  <si>
+    <t>substance-p receptor (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8474087</t>
+  </si>
+  <si>
+    <t>4637406</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamine receptor 2c (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8474067</t>
+  </si>
+  <si>
+    <t>8474068</t>
+  </si>
+  <si>
+    <t>802574</t>
+  </si>
+  <si>
+    <t>receptors, adrenergic, beta-1</t>
+  </si>
+  <si>
+    <t>8466802</t>
+  </si>
+  <si>
+    <t>836206</t>
+  </si>
+  <si>
+    <t>vascular endothelial growth factor receptor-1</t>
+  </si>
+  <si>
+    <t>8485931</t>
+  </si>
+  <si>
+    <t>2997460</t>
+  </si>
+  <si>
+    <t>d(3) dopamine receptor (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8473076</t>
+  </si>
+  <si>
+    <t>8473078</t>
+  </si>
+  <si>
+    <t>837008</t>
+  </si>
+  <si>
+    <t>p-glycoprotein</t>
+  </si>
+  <si>
+    <t>1567183</t>
+  </si>
+  <si>
+    <t>3153376</t>
+  </si>
+  <si>
+    <t>c-c chemokine receptor type 5 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8472553</t>
+  </si>
+  <si>
+    <t>521981</t>
+  </si>
+  <si>
+    <t>muscarinic acetylcholine receptor m1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8470142</t>
+  </si>
+  <si>
+    <t>8470140</t>
+  </si>
+  <si>
+    <t>253194</t>
+  </si>
+  <si>
+    <t>sodium-dependent dopamine transporter (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8470103</t>
+  </si>
+  <si>
+    <t>8470100</t>
   </si>
   <si>
     <t>400857</t>
@@ -372,199 +570,10 @@
     <t>sodium-dependent noradrenaline transporter (homo sapiens)</t>
   </si>
   <si>
-    <t>74857265</t>
-  </si>
-  <si>
-    <t>74857264</t>
-  </si>
-  <si>
-    <t>4323119</t>
-  </si>
-  <si>
-    <t>tyrosine-protein kinase lck (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74864498</t>
-  </si>
-  <si>
-    <t>483817</t>
-  </si>
-  <si>
-    <t>erbb-2 receptor</t>
-  </si>
-  <si>
-    <t>74868035</t>
-  </si>
-  <si>
-    <t>496044</t>
-  </si>
-  <si>
-    <t>acetylcholinesterase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74857230</t>
-  </si>
-  <si>
-    <t>2986614</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptamine receptor 2a (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74868051</t>
-  </si>
-  <si>
-    <t>74868050</t>
-  </si>
-  <si>
-    <t>1110022</t>
-  </si>
-  <si>
-    <t>alpha-1d adrenergic receptor (rattus norvegicus)</t>
-  </si>
-  <si>
-    <t>74868478</t>
-  </si>
-  <si>
-    <t>330126</t>
-  </si>
-  <si>
-    <t>progesterone receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74867076</t>
-  </si>
-  <si>
-    <t>4394972</t>
-  </si>
-  <si>
-    <t>neutrophil elastase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74867080</t>
-  </si>
-  <si>
-    <t>2969074</t>
-  </si>
-  <si>
-    <t>estrogen receptor beta (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74860525</t>
-  </si>
-  <si>
-    <t>684007</t>
-  </si>
-  <si>
-    <t>protein kinase c alpha type (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74867083</t>
-  </si>
-  <si>
-    <t>4528</t>
-  </si>
-  <si>
-    <t>alpha-1b adrenergic receptor (rattus norvegicus)</t>
-  </si>
-  <si>
-    <t>74857243</t>
-  </si>
-  <si>
-    <t>74857248</t>
-  </si>
-  <si>
-    <t>1571756</t>
-  </si>
-  <si>
-    <t>interstitial collagenase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74864468</t>
-  </si>
-  <si>
-    <t>746283</t>
-  </si>
-  <si>
-    <t>substance-p receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74864525</t>
-  </si>
-  <si>
-    <t>4637406</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptamine receptor 2c (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74864504</t>
-  </si>
-  <si>
-    <t>74864506</t>
-  </si>
-  <si>
-    <t>2997460</t>
-  </si>
-  <si>
-    <t>d(3) dopamine receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74863381</t>
-  </si>
-  <si>
-    <t>74863380</t>
-  </si>
-  <si>
-    <t>837008</t>
-  </si>
-  <si>
-    <t>p-glycoprotein</t>
-  </si>
-  <si>
-    <t>67995519</t>
-  </si>
-  <si>
-    <t>3153376</t>
-  </si>
-  <si>
-    <t>c-c chemokine receptor type 5 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74862795</t>
-  </si>
-  <si>
-    <t>521981</t>
-  </si>
-  <si>
-    <t>muscarinic acetylcholine receptor m1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74860543</t>
-  </si>
-  <si>
-    <t>74860544</t>
-  </si>
-  <si>
-    <t>244719</t>
-  </si>
-  <si>
-    <t>prostaglandin g/h synthase 1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74860513</t>
-  </si>
-  <si>
-    <t>253194</t>
-  </si>
-  <si>
-    <t>sodium-dependent dopamine transporter (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74860517</t>
-  </si>
-  <si>
-    <t>74860516</t>
+    <t>8466807</t>
+  </si>
+  <si>
+    <t>8466808</t>
   </si>
   <si>
     <t>153796</t>
@@ -573,22 +582,31 @@
     <t>pharmacologic substance</t>
   </si>
   <si>
-    <t>105773532</t>
+    <t>39421681</t>
   </si>
   <si>
     <t>is a</t>
   </si>
   <si>
+    <t>769867</t>
+  </si>
+  <si>
+    <t>receptor tyrosine-protein kinase erbb-2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8477449</t>
+  </si>
+  <si>
     <t>172736</t>
   </si>
   <si>
     <t>muscarinic acetylcholine receptor m2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74860549</t>
-  </si>
-  <si>
-    <t>74860548</t>
+    <t>8470153</t>
+  </si>
+  <si>
+    <t>8470150</t>
   </si>
   <si>
     <t>2828665</t>
@@ -597,16 +615,7 @@
     <t>arachidonate 15-lipoxygenase b (homo sapiens)</t>
   </si>
   <si>
-    <t>75546312</t>
-  </si>
-  <si>
-    <t>2139565</t>
-  </si>
-  <si>
-    <t>beta-2 adrenergic receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74857260</t>
+    <t>9122996</t>
   </si>
   <si>
     <t>605141</t>
@@ -615,7 +624,19 @@
     <t>melanocortin receptor 4 (homo sapiens)</t>
   </si>
   <si>
-    <t>74860541</t>
+    <t>8470137</t>
+  </si>
+  <si>
+    <t>4437642</t>
+  </si>
+  <si>
+    <t>muscarinic acetylcholine receptor m3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8473094</t>
+  </si>
+  <si>
+    <t>8473093</t>
   </si>
   <si>
     <t>4297890</t>
@@ -624,40 +645,10 @@
     <t>5-hydroxytryptamine receptor 6 (homo sapiens)</t>
   </si>
   <si>
-    <t>74864509</t>
-  </si>
-  <si>
-    <t>74864511</t>
-  </si>
-  <si>
-    <t>1109381</t>
-  </si>
-  <si>
-    <t>beta-1 adrenergic receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74857257</t>
-  </si>
-  <si>
-    <t>4437642</t>
-  </si>
-  <si>
-    <t>muscarinic acetylcholine receptor m3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74863394</t>
-  </si>
-  <si>
-    <t>74863395</t>
-  </si>
-  <si>
-    <t>282994</t>
-  </si>
-  <si>
-    <t>vascular endothelial growth factor receptor 1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74876669</t>
+    <t>8474074</t>
+  </si>
+  <si>
+    <t>8474073</t>
   </si>
   <si>
     <t>2973263</t>
@@ -666,7 +657,7 @@
     <t>d(4) dopamine receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74862813</t>
+    <t>8472567</t>
   </si>
   <si>
     <t>2831820</t>
@@ -675,7 +666,7 @@
     <t>glucocorticoid receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74862832</t>
+    <t>8472580</t>
   </si>
   <si>
     <t>4676220</t>
@@ -684,7 +675,7 @@
     <t>amine oxidase [flavin-containing] a (homo sapiens)</t>
   </si>
   <si>
-    <t>74860542</t>
+    <t>8470139</t>
   </si>
   <si>
     <t>48003</t>
@@ -693,7 +684,7 @@
     <t>sigma non-opioid intracellular receptor 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74868081</t>
+    <t>8477508</t>
   </si>
   <si>
     <t>5628288</t>
@@ -702,7 +693,7 @@
     <t>beta-3 adrenergic receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74857261</t>
+    <t>8466805</t>
   </si>
   <si>
     <t>4618674</t>
@@ -711,7 +702,7 @@
     <t>mitogen-activated protein kinase 3 (homo sapiens)</t>
   </si>
   <si>
-    <t>74876656</t>
+    <t>8485915</t>
   </si>
   <si>
     <t>3149407</t>
@@ -720,7 +711,7 @@
     <t>type-2 angiotensin ii receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74868493</t>
+    <t>8478011</t>
   </si>
   <si>
     <t>3103480</t>
@@ -729,7 +720,7 @@
     <t>caspase-1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74876652</t>
+    <t>8485911</t>
   </si>
   <si>
     <t>781426</t>
@@ -738,7 +729,7 @@
     <t>endothelin-1 receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74860522</t>
+    <t>8470107</t>
   </si>
   <si>
     <t>4448384</t>
@@ -747,43 +738,43 @@
     <t>histamine h1 receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>105773542</t>
+    <t>2803256</t>
+  </si>
+  <si>
+    <t>1553547</t>
+  </si>
+  <si>
+    <t>39421691</t>
   </si>
   <si>
     <t>is modified by</t>
   </si>
   <si>
-    <t>69232720</t>
-  </si>
-  <si>
-    <t>67958256</t>
-  </si>
-  <si>
     <t>82727</t>
   </si>
   <si>
     <t>multidrug resistance protein 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>105773541</t>
+    <t>1567185</t>
+  </si>
+  <si>
+    <t>39421690</t>
   </si>
   <si>
     <t>traverses</t>
   </si>
   <si>
-    <t>67995520</t>
-  </si>
-  <si>
     <t>4298283</t>
   </si>
   <si>
     <t>5-hydroxytryptamine receptor 2b (homo sapiens)</t>
   </si>
   <si>
-    <t>74864501</t>
-  </si>
-  <si>
-    <t>74864503</t>
+    <t>8474064</t>
+  </si>
+  <si>
+    <t>8474065</t>
   </si>
   <si>
     <t>3007136</t>
@@ -792,7 +783,7 @@
     <t>tyrosine-protein kinase fyn (homo sapiens)</t>
   </si>
   <si>
-    <t>74864493</t>
+    <t>8474057</t>
   </si>
   <si>
     <t>213967</t>
@@ -801,16 +792,16 @@
     <t>alpha-1d adrenergic receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74859082</t>
-  </si>
-  <si>
-    <t>2278411</t>
-  </si>
-  <si>
-    <t>cgmp-specific 3',5'-cyclic phosphodiesterase</t>
-  </si>
-  <si>
-    <t>74863405</t>
+    <t>8468673</t>
+  </si>
+  <si>
+    <t>1655876</t>
+  </si>
+  <si>
+    <t>cgmp-specific 3',5'-cyclic phosphodiesterase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8473105</t>
   </si>
   <si>
     <t>3014218</t>
@@ -819,16 +810,16 @@
     <t>d(1a) dopamine receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74863377</t>
-  </si>
-  <si>
-    <t>689150</t>
-  </si>
-  <si>
-    <t>c-c chemokine receptor type 2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74860511</t>
+    <t>8473071</t>
+  </si>
+  <si>
+    <t>1697352</t>
+  </si>
+  <si>
+    <t>c-c chemokine receptor type 2</t>
+  </si>
+  <si>
+    <t>8470092</t>
   </si>
   <si>
     <t>2846257</t>
@@ -837,10 +828,10 @@
     <t>muscarinic acetylcholine receptor m4 (homo sapiens)</t>
   </si>
   <si>
-    <t>74860550</t>
-  </si>
-  <si>
-    <t>74860552</t>
+    <t>8470154</t>
+  </si>
+  <si>
+    <t>8470156</t>
   </si>
   <si>
     <t>2846138</t>
@@ -849,19 +840,19 @@
     <t>muscarinic acetylcholine receptor m5 (homo sapiens)</t>
   </si>
   <si>
-    <t>74860554</t>
-  </si>
-  <si>
-    <t>74860553</t>
-  </si>
-  <si>
-    <t>219059</t>
-  </si>
-  <si>
-    <t>alpha-2a adrenergic receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74857249</t>
+    <t>8470158</t>
+  </si>
+  <si>
+    <t>8470159</t>
+  </si>
+  <si>
+    <t>426326</t>
+  </si>
+  <si>
+    <t>adrenergic receptor alpha(2a)</t>
+  </si>
+  <si>
+    <t>8466796</t>
   </si>
   <si>
     <t>3382755</t>
@@ -870,7 +861,7 @@
     <t>b2 bradykinin receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74859258</t>
+    <t>8468834</t>
   </si>
   <si>
     <t>184839</t>
@@ -879,7 +870,7 @@
     <t>neuropeptide y receptor type 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862850</t>
+    <t>8472601</t>
   </si>
   <si>
     <t>4525748</t>
@@ -888,7 +879,7 @@
     <t>thromboxane-a synthase (homo sapiens)</t>
   </si>
   <si>
-    <t>74867096</t>
+    <t>8476501</t>
   </si>
   <si>
     <t>2977571</t>
@@ -897,7 +888,7 @@
     <t>protein farnesyltransferase/geranylgeranyltransferase type-1 subunit alpha (homo sapiens)</t>
   </si>
   <si>
-    <t>78018049</t>
+    <t>11596377</t>
   </si>
   <si>
     <t>2978110</t>
@@ -906,7 +897,7 @@
     <t>protein farnesyltransferase subunit beta (homo sapiens)</t>
   </si>
   <si>
-    <t>67747106</t>
+    <t>11596378</t>
   </si>
   <si>
     <t>4293397</t>
@@ -915,7 +906,7 @@
     <t>substance-k receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74867092</t>
+    <t>8476498</t>
   </si>
   <si>
     <t>339939</t>
@@ -924,7 +915,7 @@
     <t>nitric oxide synthase, inducible (mus musculus)</t>
   </si>
   <si>
-    <t>74863401</t>
+    <t>8473100</t>
   </si>
   <si>
     <t>3097920</t>
@@ -933,7 +924,7 @@
     <t>c-x-c chemokine receptor type 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862796</t>
+    <t>8472554</t>
   </si>
   <si>
     <t>2996736</t>
@@ -942,19 +933,10 @@
     <t>histamine h2 receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74862838</t>
-  </si>
-  <si>
-    <t>74862839</t>
-  </si>
-  <si>
-    <t>5328</t>
-  </si>
-  <si>
-    <t>alpha-2c adrenergic receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74857256</t>
+    <t>8472588</t>
+  </si>
+  <si>
+    <t>8472586</t>
   </si>
   <si>
     <t>4507655</t>
@@ -963,7 +945,7 @@
     <t>vasopressin v1a receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74868084</t>
+    <t>8477513</t>
   </si>
   <si>
     <t>183372</t>
@@ -972,7 +954,7 @@
     <t>neuropeptide y receptor type 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862855</t>
+    <t>8472608</t>
   </si>
   <si>
     <t>5629404</t>
@@ -981,7 +963,16 @@
     <t>cholecystokinin receptor type a (homo sapiens)</t>
   </si>
   <si>
-    <t>74862797</t>
+    <t>8472555</t>
+  </si>
+  <si>
+    <t>670434</t>
+  </si>
+  <si>
+    <t>alpha-2c adrenergic receptor</t>
+  </si>
+  <si>
+    <t>8466801</t>
   </si>
   <si>
     <t>2677696</t>
@@ -990,7 +981,7 @@
     <t>melanocortin receptor 3 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862844</t>
+    <t>8472592</t>
   </si>
   <si>
     <t>1655732</t>
@@ -999,7 +990,7 @@
     <t>cysteinyl leukotriene receptor 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74860537</t>
+    <t>8470131</t>
   </si>
   <si>
     <t>4042268</t>
@@ -1008,7 +999,16 @@
     <t>cytochrome p450 2e1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862809</t>
+    <t>8472564</t>
+  </si>
+  <si>
+    <t>4404164</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamine receptor 1b (rattus norvegicus)</t>
+  </si>
+  <si>
+    <t>8474063</t>
   </si>
   <si>
     <t>346615</t>
@@ -1017,7 +1017,7 @@
     <t>aldose reductase (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74857270</t>
+    <t>8466809</t>
   </si>
   <si>
     <t>2822774</t>
@@ -1026,16 +1026,7 @@
     <t>nitric oxide synthase, brain (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74872000</t>
-  </si>
-  <si>
-    <t>4404164</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptamine receptor 1b (rattus norvegicus)</t>
-  </si>
-  <si>
-    <t>74864500</t>
+    <t>8481058</t>
   </si>
   <si>
     <t>813522</t>
@@ -1044,10 +1035,10 @@
     <t>alpha-2b adrenergic receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74857254</t>
-  </si>
-  <si>
-    <t>74857253</t>
+    <t>8466799</t>
+  </si>
+  <si>
+    <t>8466800</t>
   </si>
   <si>
     <t>4659700</t>
@@ -1056,7 +1047,7 @@
     <t>melanocortin receptor 5 (homo sapiens)</t>
   </si>
   <si>
-    <t>74862846</t>
+    <t>8472597</t>
   </si>
   <si>
     <t>5806196</t>
@@ -1065,7 +1056,7 @@
     <t>4-(4-dimethylaminostyryl)-1-methylpyridinium</t>
   </si>
   <si>
-    <t>88380458</t>
+    <t>17697843</t>
   </si>
   <si>
     <t>3781438</t>
@@ -1074,7 +1065,7 @@
     <t>4-(p-dimethylaminostyryl)-1-methylpyridinium p-toluenesulfonate</t>
   </si>
   <si>
-    <t>88380460</t>
+    <t>17697845</t>
   </si>
   <si>
     <t>1586586</t>
@@ -1083,7 +1074,7 @@
     <t>1-methyl-4-(4-dimethylaminostyryl)pyridinium</t>
   </si>
   <si>
-    <t>88380456</t>
+    <t>17697840</t>
   </si>
   <si>
     <t>4675268</t>
@@ -1092,7 +1083,7 @@
     <t>androgen receptor (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74864526</t>
+    <t>8474088</t>
   </si>
   <si>
     <t>4299255</t>
@@ -1101,7 +1092,16 @@
     <t>angiotensin-converting enzyme (oryctolagus cuniculus)</t>
   </si>
   <si>
-    <t>74867077</t>
+    <t>8476473</t>
+  </si>
+  <si>
+    <t>322382</t>
+  </si>
+  <si>
+    <t>cd45 antigens</t>
+  </si>
+  <si>
+    <t>8485918</t>
   </si>
   <si>
     <t>3108923</t>
@@ -1110,7 +1110,7 @@
     <t>c-x-c chemokine receptor type 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74871947</t>
+    <t>8480999</t>
   </si>
   <si>
     <t>4365794</t>
@@ -1119,7 +1119,7 @@
     <t>platelet-activating factor receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74862868</t>
+    <t>8472614</t>
   </si>
   <si>
     <t>775973</t>
@@ -1128,7 +1128,7 @@
     <t>cathepsin g (homo sapiens)</t>
   </si>
   <si>
-    <t>74867079</t>
+    <t>8476474</t>
   </si>
   <si>
     <t>465125</t>
@@ -1137,7 +1137,7 @@
     <t>cytochrome p450 2a3 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74860514</t>
+    <t>8470097</t>
   </si>
   <si>
     <t>153667</t>
@@ -1146,16 +1146,7 @@
     <t>c-c chemokine receptor type 4 (homo sapiens)</t>
   </si>
   <si>
-    <t>74863367</t>
-  </si>
-  <si>
-    <t>527038</t>
-  </si>
-  <si>
-    <t>receptor-type tyrosine-protein phosphatase c (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74876662</t>
+    <t>8473064</t>
   </si>
   <si>
     <t>463127</t>
@@ -1164,7 +1155,7 @@
     <t>3-hydroxy-3-methylglutaryl-coenzyme a reductase (homo sapiens)</t>
   </si>
   <si>
-    <t>74863384</t>
+    <t>8473082</t>
   </si>
   <si>
     <t>4357106</t>
@@ -1173,7 +1164,7 @@
     <t>5-hydroxytryptamine receptor 4 (cavia porcellus)</t>
   </si>
   <si>
-    <t>74864508</t>
+    <t>8474071</t>
   </si>
   <si>
     <t>4704320</t>
@@ -1182,10 +1173,10 @@
     <t>histamine h1 receptor (cavia porcellus)</t>
   </si>
   <si>
-    <t>69559889</t>
-  </si>
-  <si>
-    <t>73241765</t>
+    <t>3128759</t>
+  </si>
+  <si>
+    <t>6815729</t>
   </si>
   <si>
     <t>3103941</t>
@@ -1194,7 +1185,7 @@
     <t>vasoactive intestinal polypeptide receptor 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74864528</t>
+    <t>8474092</t>
   </si>
   <si>
     <t>171141</t>
@@ -1203,7 +1194,7 @@
     <t>serine/threonine-protein phosphatase 2b catalytic subunit alpha isoform (homo sapiens)</t>
   </si>
   <si>
-    <t>74864490</t>
+    <t>8474054</t>
   </si>
   <si>
     <t>4501263</t>
@@ -1212,7 +1203,7 @@
     <t>arachidonate 15-lipoxygenase (oryctolagus cuniculus)</t>
   </si>
   <si>
-    <t>74862842</t>
+    <t>8472590</t>
   </si>
   <si>
     <t>4653205</t>
@@ -1221,7 +1212,7 @@
     <t>calcitonin receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74863363</t>
+    <t>8473053</t>
   </si>
   <si>
     <t>87823</t>
@@ -1230,7 +1221,7 @@
     <t>montelukast</t>
   </si>
   <si>
-    <t>84618616</t>
+    <t>18554887</t>
   </si>
   <si>
     <t>4422922</t>
@@ -1239,7 +1230,7 @@
     <t>insulin receptor (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74860528</t>
+    <t>8470117</t>
   </si>
   <si>
     <t>4823265</t>
@@ -1248,7 +1239,7 @@
     <t>xylan endo-1,3-beta-xylosidase</t>
   </si>
   <si>
-    <t>131168852</t>
+    <t>64823874</t>
   </si>
   <si>
     <t>coexists with</t>
@@ -1260,7 +1251,7 @@
     <t>leukotriene c4 synthase (cavia porcellus)</t>
   </si>
   <si>
-    <t>74863387</t>
+    <t>8473085</t>
   </si>
   <si>
     <t>2828501</t>
@@ -1269,7 +1260,7 @@
     <t>peripheral myelin protein 22 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>78582895</t>
+    <t>12161220</t>
   </si>
   <si>
     <t>5082167</t>
@@ -1278,7 +1269,7 @@
     <t>endo-1,4-beta xylanases</t>
   </si>
   <si>
-    <t>131168351</t>
+    <t>64823509</t>
   </si>
   <si>
     <t>4872370</t>
@@ -1287,7 +1278,7 @@
     <t>fosinopril</t>
   </si>
   <si>
-    <t>84756586</t>
+    <t>20225778</t>
   </si>
   <si>
     <t>3381154</t>
@@ -1296,10 +1287,10 @@
     <t>desloratadine</t>
   </si>
   <si>
-    <t>139094188</t>
-  </si>
-  <si>
-    <t>205820837</t>
+    <t>72696296</t>
+  </si>
+  <si>
+    <t>139626801</t>
   </si>
   <si>
     <t>is parent of</t>
@@ -1311,7 +1302,7 @@
     <t>exo-1,4-beta-d-xylosidase</t>
   </si>
   <si>
-    <t>124111571</t>
+    <t>57717769</t>
   </si>
   <si>
     <t>38312</t>
@@ -1320,7 +1311,7 @@
     <t>montelukast sodium</t>
   </si>
   <si>
-    <t>84618647</t>
+    <t>18554895</t>
   </si>
   <si>
     <t>486800</t>
@@ -1329,7 +1320,7 @@
     <t>singulair</t>
   </si>
   <si>
-    <t>84618671</t>
+    <t>18554914</t>
   </si>
   <si>
     <t>743644</t>
@@ -1338,7 +1329,7 @@
     <t>mk 0476</t>
   </si>
   <si>
-    <t>84618693</t>
+    <t>18554936</t>
   </si>
   <si>
     <t>322376</t>
@@ -1347,7 +1338,7 @@
     <t>fosinopril sodium</t>
   </si>
   <si>
-    <t>84756559</t>
+    <t>20225755</t>
   </si>
   <si>
     <t>763163</t>
@@ -1356,7 +1347,7 @@
     <t>monopril</t>
   </si>
   <si>
-    <t>84756568</t>
+    <t>20225758</t>
   </si>
   <si>
     <t>489841</t>
@@ -1365,7 +1356,7 @@
     <t>sq-28,555</t>
   </si>
   <si>
-    <t>84756580</t>
+    <t>20225774</t>
   </si>
   <si>
     <t>391111</t>
@@ -1374,7 +1365,7 @@
     <t>fozitec</t>
   </si>
   <si>
-    <t>84756575</t>
+    <t>20225766</t>
   </si>
   <si>
     <t>2822647</t>
@@ -1383,7 +1374,7 @@
     <t>tenso stop</t>
   </si>
   <si>
-    <t>84756584</t>
+    <t>20225782</t>
   </si>
   <si>
     <t>2822203</t>
@@ -1392,7 +1383,7 @@
     <t>hiperlex</t>
   </si>
   <si>
-    <t>84756554</t>
+    <t>20225752</t>
   </si>
   <si>
     <t>2822168</t>
@@ -1401,7 +1392,7 @@
     <t>fosinil</t>
   </si>
   <si>
-    <t>84756571</t>
+    <t>20225762</t>
   </si>
   <si>
     <t>2822063</t>
@@ -1410,7 +1401,7 @@
     <t>dynacil</t>
   </si>
   <si>
-    <t>84756577</t>
+    <t>20225770</t>
   </si>
   <si>
     <t>3380668</t>
@@ -1419,7 +1410,7 @@
     <t>fosinopril, (1(s*(s*)),2 alpha,4 beta)-isomer</t>
   </si>
   <si>
-    <t>84756563</t>
+    <t>20225748</t>
   </si>
   <si>
     <t>3380601</t>
@@ -1428,7 +1419,7 @@
     <t>fosinopril, (1(s*(r*)),2 alpha,4 alpha)-(d-pro)-isomer</t>
   </si>
   <si>
-    <t>84756588</t>
+    <t>20225785</t>
   </si>
   <si>
     <t>2851653</t>
@@ -1437,7 +1428,7 @@
     <t>desloratadine 5 mg disintegrating oral tablet [clarinex]</t>
   </si>
   <si>
-    <t>203627812</t>
+    <t>137438609</t>
   </si>
   <si>
     <t>2695148</t>
@@ -1446,7 +1437,7 @@
     <t>desloratadine 2.5 mg disintegrating oral tablet [clarinex]</t>
   </si>
   <si>
-    <t>203627882</t>
+    <t>137438674</t>
   </si>
   <si>
     <t>2866300</t>
@@ -1455,7 +1446,7 @@
     <t>desloratadine 5 mg oral tablet [clarinex]</t>
   </si>
   <si>
-    <t>203627791</t>
+    <t>137438579</t>
   </si>
   <si>
     <t>2684187</t>
@@ -1464,7 +1455,7 @@
     <t>desloratadine 0.5 mg/ml oral solution [clarinex]</t>
   </si>
   <si>
-    <t>203627852</t>
+    <t>137438649</t>
   </si>
   <si>
     <t>2736258</t>
@@ -1473,7 +1464,7 @@
     <t>desloratadine 5 mg [clarinex]</t>
   </si>
   <si>
-    <t>203627827</t>
+    <t>137438628</t>
   </si>
   <si>
     <t>2691502</t>
@@ -1482,7 +1473,7 @@
     <t>desloratadine 2.5 mg [clarinex]</t>
   </si>
   <si>
-    <t>203627868</t>
+    <t>137438664</t>
   </si>
   <si>
     <t>2665346</t>
@@ -1491,7 +1482,7 @@
     <t>desloratadine 0.5 mg/ml [clarinex]</t>
   </si>
   <si>
-    <t>203627839</t>
+    <t>137438638</t>
   </si>
   <si>
     <t>990913</t>
@@ -1500,7 +1491,7 @@
     <t>clarinex disintegrating oral product</t>
   </si>
   <si>
-    <t>203627955</t>
+    <t>137438750</t>
   </si>
   <si>
     <t>3178655</t>
@@ -1509,7 +1500,7 @@
     <t>desloratadine oral tablet [clarinex]</t>
   </si>
   <si>
-    <t>203627804</t>
+    <t>137438593</t>
   </si>
   <si>
     <t>2744340</t>
@@ -1518,7 +1509,7 @@
     <t>desloratadine oral solution [clarinex]</t>
   </si>
   <si>
-    <t>203627910</t>
+    <t>137438699</t>
   </si>
   <si>
     <t>2698102</t>
@@ -1527,7 +1518,7 @@
     <t>desloratadine disintegrating oral tablet [clarinex]</t>
   </si>
   <si>
-    <t>203627898</t>
+    <t>137438676</t>
   </si>
   <si>
     <t>1825239</t>
@@ -1536,7 +1527,7 @@
     <t>clarinex oral liquid product</t>
   </si>
   <si>
-    <t>203627922</t>
+    <t>137438708</t>
   </si>
   <si>
     <t>1822901</t>
@@ -1545,7 +1536,7 @@
     <t>clarinex pill</t>
   </si>
   <si>
-    <t>203627944</t>
+    <t>137438738</t>
   </si>
   <si>
     <t>1821871</t>
@@ -1554,7 +1545,7 @@
     <t>clarinex oral product</t>
   </si>
   <si>
-    <t>203627934</t>
+    <t>137438725</t>
   </si>
   <si>
     <t>129543</t>
@@ -1566,7 +1557,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>105773533</t>
+    <t>39421682</t>
   </si>
   <si>
     <t>is part of</t>
@@ -1578,7 +1569,7 @@
     <t>tissue membrane</t>
   </si>
   <si>
-    <t>105773534</t>
+    <t>39421683</t>
   </si>
   <si>
     <t>2397227</t>
@@ -1587,7 +1578,7 @@
     <t>mcf-7 cells</t>
   </si>
   <si>
-    <t>69374172</t>
+    <t>2942271</t>
   </si>
   <si>
     <t>4047989</t>
@@ -1596,7 +1587,7 @@
     <t>liver</t>
   </si>
   <si>
-    <t>105773544</t>
+    <t>39421693</t>
   </si>
   <si>
     <t>3745878</t>
@@ -1605,7 +1596,7 @@
     <t>ht29 cells</t>
   </si>
   <si>
-    <t>69374358</t>
+    <t>2942440</t>
   </si>
   <si>
     <t>5597671</t>
@@ -1614,7 +1605,7 @@
     <t>mda-mb-231</t>
   </si>
   <si>
-    <t>69491523</t>
+    <t>3058925</t>
   </si>
   <si>
     <t>836328</t>
@@ -1623,7 +1614,7 @@
     <t>blood</t>
   </si>
   <si>
-    <t>105773535</t>
+    <t>39421684</t>
   </si>
   <si>
     <t>544027</t>
@@ -1632,7 +1623,7 @@
     <t>kidney</t>
   </si>
   <si>
-    <t>105773543</t>
+    <t>39421692</t>
   </si>
   <si>
     <t>395518</t>
@@ -1641,16 +1632,7 @@
     <t>urine</t>
   </si>
   <si>
-    <t>105773536</t>
-  </si>
-  <si>
-    <t>454869</t>
-  </si>
-  <si>
-    <t>ileum</t>
-  </si>
-  <si>
-    <t>69559850</t>
+    <t>39421685</t>
   </si>
   <si>
     <t>4028305</t>
@@ -1659,7 +1641,7 @@
     <t>nose</t>
   </si>
   <si>
-    <t>146808964</t>
+    <t>80432029</t>
   </si>
   <si>
     <t>disrupts</t>
@@ -1671,7 +1653,7 @@
     <t>mdck</t>
   </si>
   <si>
-    <t>71549713</t>
+    <t>5179111</t>
   </si>
   <si>
     <t>1654581</t>
@@ -1683,7 +1665,7 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>77285969</t>
+    <t>10863069</t>
   </si>
   <si>
     <t>2792087</t>
@@ -1692,7 +1674,7 @@
     <t>cxcl8 (homo sapiens)</t>
   </si>
   <si>
-    <t>84618600</t>
+    <t>18554772</t>
   </si>
   <si>
     <t>2787844</t>
@@ -1701,19 +1683,28 @@
     <t>abcb1 (homo sapiens)</t>
   </si>
   <si>
-    <t>86932836</t>
+    <t>20703684</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
+    <t>2791365</t>
+  </si>
+  <si>
+    <t>pgr (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8476472</t>
+  </si>
+  <si>
     <t>2791846</t>
   </si>
   <si>
     <t>f3 (homo sapiens)</t>
   </si>
   <si>
-    <t>87979558</t>
+    <t>21804644</t>
   </si>
   <si>
     <t>stimulates</t>
@@ -1725,7 +1716,7 @@
     <t>abcc2 (homo sapiens)</t>
   </si>
   <si>
-    <t>84756362</t>
+    <t>20225619</t>
   </si>
   <si>
     <t>2830811</t>
@@ -1734,7 +1725,7 @@
     <t>slc22a2 (homo sapiens)</t>
   </si>
   <si>
-    <t>88380443</t>
+    <t>17697824</t>
   </si>
   <si>
     <t>3019985</t>
@@ -1743,7 +1734,7 @@
     <t>dhx8 (homo sapiens)</t>
   </si>
   <si>
-    <t>111708707</t>
+    <t>45530116</t>
   </si>
   <si>
     <t>2786881</t>
@@ -1752,7 +1743,7 @@
     <t>il5 (homo sapiens)</t>
   </si>
   <si>
-    <t>85281216</t>
+    <t>19307437</t>
   </si>
   <si>
     <t>3008349</t>
@@ -1761,10 +1752,10 @@
     <t>hrh1 (homo sapiens)</t>
   </si>
   <si>
-    <t>88816001</t>
-  </si>
-  <si>
-    <t>111708712</t>
+    <t>45530123</t>
+  </si>
+  <si>
+    <t>22710494</t>
   </si>
   <si>
     <t>1660046</t>
@@ -1773,7 +1764,7 @@
     <t>dhx34 (homo sapiens)</t>
   </si>
   <si>
-    <t>111708709</t>
+    <t>45530118</t>
   </si>
   <si>
     <t>2940375</t>
@@ -1785,7 +1776,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>146809001</t>
+    <t>80432088</t>
   </si>
   <si>
     <t>4027143</t>
@@ -1794,7 +1785,7 @@
     <t>obstruction</t>
   </si>
   <si>
-    <t>146808874</t>
+    <t>80431941</t>
   </si>
   <si>
     <t>treats</t>
@@ -1806,7 +1797,7 @@
     <t>vomiting</t>
   </si>
   <si>
-    <t>80947833</t>
+    <t>14725802</t>
   </si>
   <si>
     <t>indicates</t>
@@ -1818,7 +1809,7 @@
     <t>headache</t>
   </si>
   <si>
-    <t>80947724</t>
+    <t>14725750</t>
   </si>
   <si>
     <t>4048874</t>
@@ -1827,7 +1818,7 @@
     <t>nausea</t>
   </si>
   <si>
-    <t>80947770</t>
+    <t>14725774</t>
   </si>
   <si>
     <t>4034179</t>
@@ -1836,7 +1827,7 @@
     <t>fatigue</t>
   </si>
   <si>
-    <t>80947675</t>
+    <t>14725724</t>
   </si>
   <si>
     <t>4042438</t>
@@ -1845,7 +1836,7 @@
     <t>cholestasis</t>
   </si>
   <si>
-    <t>80947662</t>
+    <t>14725718</t>
   </si>
   <si>
     <t>5793255</t>
@@ -1854,7 +1845,7 @@
     <t>ataxia</t>
   </si>
   <si>
-    <t>80947639</t>
+    <t>14725706</t>
   </si>
   <si>
     <t>620565</t>
@@ -1863,7 +1854,16 @@
     <t>pruritus</t>
   </si>
   <si>
-    <t>80947779</t>
+    <t>14725778</t>
+  </si>
+  <si>
+    <t>3772078</t>
+  </si>
+  <si>
+    <t>hepatotoxicity</t>
+  </si>
+  <si>
+    <t>8744627</t>
   </si>
   <si>
     <t>2798144</t>
@@ -1872,7 +1872,7 @@
     <t>dermatitis, atopic</t>
   </si>
   <si>
-    <t>155366251</t>
+    <t>89228648</t>
   </si>
   <si>
     <t>171892</t>
@@ -1881,7 +1881,7 @@
     <t>hemicrania</t>
   </si>
   <si>
-    <t>80947743</t>
+    <t>14725760</t>
   </si>
   <si>
     <t>2441406</t>
@@ -1890,7 +1890,7 @@
     <t>orthostatic headache</t>
   </si>
   <si>
-    <t>80947741</t>
+    <t>14725759</t>
   </si>
   <si>
     <t>450724</t>
@@ -1899,7 +1899,7 @@
     <t>throbbing headache</t>
   </si>
   <si>
-    <t>80947728</t>
+    <t>14725753</t>
   </si>
   <si>
     <t>3123986</t>
@@ -1908,7 +1908,7 @@
     <t>bilateral headache</t>
   </si>
   <si>
-    <t>80947737</t>
+    <t>14725757</t>
   </si>
   <si>
     <t>3026435</t>
@@ -1917,7 +1917,7 @@
     <t>generalized headache</t>
   </si>
   <si>
-    <t>80947726</t>
+    <t>14725751</t>
   </si>
   <si>
     <t>2440978</t>
@@ -1926,7 +1926,7 @@
     <t>sharp headache</t>
   </si>
   <si>
-    <t>80947739</t>
+    <t>14725758</t>
   </si>
   <si>
     <t>762995</t>
@@ -1935,7 +1935,7 @@
     <t>vertex headache</t>
   </si>
   <si>
-    <t>80947733</t>
+    <t>14725755</t>
   </si>
   <si>
     <t>3815615</t>
@@ -1944,7 +1944,7 @@
     <t>ocular headache</t>
   </si>
   <si>
-    <t>80947735</t>
+    <t>14725756</t>
   </si>
   <si>
     <t>240171</t>
@@ -1953,7 +1953,7 @@
     <t>periorbital headache</t>
   </si>
   <si>
-    <t>80947731</t>
+    <t>14725754</t>
   </si>
   <si>
     <t>483508</t>
@@ -1962,7 +1962,7 @@
     <t>retro-ocular headache</t>
   </si>
   <si>
-    <t>80947730</t>
+    <t>14725752</t>
   </si>
   <si>
     <t>5083291</t>
@@ -1971,7 +1971,7 @@
     <t>urticaria</t>
   </si>
   <si>
-    <t>80947825</t>
+    <t>14725798</t>
   </si>
   <si>
     <t>2342977</t>
@@ -1980,16 +1980,7 @@
     <t>abnormal coordination</t>
   </si>
   <si>
-    <t>80947637</t>
-  </si>
-  <si>
-    <t>3045767</t>
-  </si>
-  <si>
-    <t>toxic liver disease</t>
-  </si>
-  <si>
-    <t>75115414</t>
+    <t>14725705</t>
   </si>
   <si>
     <t>212569</t>
@@ -1998,7 +1989,7 @@
     <t>ataxia, appendicular</t>
   </si>
   <si>
-    <t>80947636</t>
+    <t>14725707</t>
   </si>
   <si>
     <t>3069724</t>
@@ -2007,7 +1998,7 @@
     <t>ataxia, truncal</t>
   </si>
   <si>
-    <t>80947630</t>
+    <t>14725702</t>
   </si>
   <si>
     <t>757625</t>
@@ -2016,7 +2007,7 @@
     <t>ataxia, sensory</t>
   </si>
   <si>
-    <t>80947641</t>
+    <t>14725708</t>
   </si>
   <si>
     <t>4794312</t>
@@ -2025,7 +2016,7 @@
     <t>xerostomia</t>
   </si>
   <si>
-    <t>80947841</t>
+    <t>14725806</t>
   </si>
   <si>
     <t>3815068</t>
@@ -2034,7 +2025,7 @@
     <t>rhinitis</t>
   </si>
   <si>
-    <t>80947787</t>
+    <t>14725782</t>
   </si>
   <si>
     <t>521549</t>
@@ -2043,7 +2034,7 @@
     <t>lassitude</t>
   </si>
   <si>
-    <t>80947677</t>
+    <t>14725725</t>
   </si>
   <si>
     <t>307914</t>
@@ -2052,7 +2043,7 @@
     <t>ataxia, motor</t>
   </si>
   <si>
-    <t>80947634</t>
+    <t>14725703</t>
   </si>
   <si>
     <t>2436496</t>
@@ -2061,7 +2052,7 @@
     <t>tremor, rubral</t>
   </si>
   <si>
-    <t>80947632</t>
+    <t>14725704</t>
   </si>
   <si>
     <t>389308</t>
@@ -2070,7 +2061,16 @@
     <t>hay fever</t>
   </si>
   <si>
-    <t>80947807</t>
+    <t>14725790</t>
+  </si>
+  <si>
+    <t>5793335</t>
+  </si>
+  <si>
+    <t>malignant neoplasm of ileum</t>
+  </si>
+  <si>
+    <t>3128734</t>
   </si>
   <si>
     <t>2051455</t>
@@ -2079,7 +2079,19 @@
     <t>allergic rhinitis (disorder)</t>
   </si>
   <si>
-    <t>80947799</t>
+    <t>14725786</t>
+  </si>
+  <si>
+    <t>6432938</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>12255047</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2256,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.748219966888428</v>
+        <v>6.748203277587891</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -2273,7 +2285,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.623352527618408</v>
+        <v>6.6233086585998535</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -2308,7 +2320,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.582371234893799</v>
+        <v>6.58232307434082</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -2343,7 +2355,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.55143404006958</v>
+        <v>6.551355838775635</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -2367,18 +2379,18 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.538965702056885</v>
+        <v>6.538912296295166</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -2413,7 +2425,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.379918098449707</v>
+        <v>6.379879474639893</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -2442,7 +2454,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.304362773895264</v>
+        <v>6.30413293838501</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -2471,7 +2483,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.294849872589111</v>
+        <v>6.294755935668945</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -2529,7 +2541,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.268647193908691</v>
+        <v>6.268497467041016</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -2558,7 +2570,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.262271404266357</v>
+        <v>6.262170314788818</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -2587,7 +2599,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.253382205963135</v>
+        <v>6.253433704376221</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -2616,7 +2628,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.236382007598877</v>
+        <v>6.236328125</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -2645,7 +2657,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.212551593780518</v>
+        <v>6.212438106536865</v>
       </c>
       <c r="B16" t="s">
         <v>80</v>
@@ -2674,7 +2686,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.195611476898193</v>
+        <v>6.1954345703125</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -2732,7 +2744,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.155490398406982</v>
+        <v>6.155361175537109</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -2761,7 +2773,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.131700038909912</v>
+        <v>6.131631851196289</v>
       </c>
       <c r="B20" t="s">
         <v>92</v>
@@ -2790,7 +2802,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.131563663482666</v>
+        <v>6.131494998931885</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
@@ -2819,7 +2831,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.130331993103027</v>
+        <v>6.130194664001465</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
@@ -2848,7 +2860,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.122239589691162</v>
+        <v>6.129302978515625</v>
       </c>
       <c r="B23" t="s">
         <v>101</v>
@@ -2877,7 +2889,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.11591100692749</v>
+        <v>6.1278581619262695</v>
       </c>
       <c r="B24" t="s">
         <v>104</v>
@@ -2906,7 +2918,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.112711429595947</v>
+        <v>6.122030258178711</v>
       </c>
       <c r="B25" t="s">
         <v>107</v>
@@ -2930,24 +2942,18 @@
         <v>109</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.110565662384033</v>
+        <v>6.115839958190918</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -2962,7 +2968,7 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s">
         <v>37</v>
@@ -2970,63 +2976,63 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.0970916748046875</v>
+        <v>6.112497329711914</v>
       </c>
       <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="J27" t="s">
         <v>117</v>
       </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>118</v>
-      </c>
-      <c r="I27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.0941972732543945</v>
+        <v>6.110063076019287</v>
       </c>
       <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
         <v>120</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
         <v>121</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
-        <v>122</v>
       </c>
       <c r="I28" t="s">
         <v>37</v>
@@ -3034,28 +3040,28 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.091507911682129</v>
+        <v>6.094048023223877</v>
       </c>
       <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
         <v>124</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>125</v>
       </c>
       <c r="I29" t="s">
         <v>37</v>
@@ -3063,28 +3069,28 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.074156761169434</v>
+        <v>6.085395812988281</v>
       </c>
       <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
         <v>127</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>37</v>
@@ -3092,92 +3098,92 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.053719520568848</v>
+        <v>6.073922634124756</v>
       </c>
       <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
         <v>129</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
         <v>130</v>
       </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s">
-        <v>131</v>
-      </c>
       <c r="I31" t="s">
-        <v>110</v>
-      </c>
-      <c r="J31" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.050848960876465</v>
+        <v>6.053555965423584</v>
       </c>
       <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
+      <c r="I32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" t="s">
         <v>134</v>
       </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" t="s">
-        <v>37</v>
+      <c r="K32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.04986047744751</v>
+        <v>6.050766468048096</v>
       </c>
       <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
         <v>137</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" t="s">
-        <v>138</v>
       </c>
       <c r="I33" t="s">
         <v>37</v>
@@ -3188,25 +3194,25 @@
         <v>6.046964168548584</v>
       </c>
       <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
         <v>139</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
         <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s">
-        <v>141</v>
       </c>
       <c r="I34" t="s">
         <v>37</v>
@@ -3214,28 +3220,28 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.046715259552002</v>
+        <v>6.046548843383789</v>
       </c>
       <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
         <v>142</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
         <v>143</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
-        <v>144</v>
       </c>
       <c r="I35" t="s">
         <v>37</v>
@@ -3243,36 +3249,42 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.0322723388671875</v>
+        <v>6.026044845581055</v>
       </c>
       <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
         <v>145</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
         <v>146</v>
       </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" t="s">
         <v>147</v>
       </c>
-      <c r="I36" t="s">
-        <v>37</v>
+      <c r="K36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.026132106781006</v>
+        <v>6.024998188018799</v>
       </c>
       <c r="B37" t="s">
         <v>148</v>
@@ -3296,39 +3308,33 @@
         <v>150</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
-      </c>
-      <c r="J37" t="s">
-        <v>151</v>
-      </c>
-      <c r="K37" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.025172710418701</v>
+        <v>6.024648666381836</v>
       </c>
       <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
         <v>152</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
         <v>153</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" t="s">
-        <v>154</v>
       </c>
       <c r="I38" t="s">
         <v>37</v>
@@ -3336,36 +3342,42 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.024735927581787</v>
+        <v>6.022106647491455</v>
       </c>
       <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
         <v>155</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
         <v>156</v>
       </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" t="s">
         <v>157</v>
       </c>
-      <c r="I39" t="s">
-        <v>37</v>
+      <c r="K39" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.022282123565674</v>
+        <v>6.012326717376709</v>
       </c>
       <c r="B40" t="s">
         <v>158</v>
@@ -3389,332 +3401,332 @@
         <v>160</v>
       </c>
       <c r="I40" t="s">
-        <v>112</v>
-      </c>
-      <c r="J40" t="s">
-        <v>161</v>
-      </c>
-      <c r="K40" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.00305700302124</v>
+        <v>6.005256175994873</v>
       </c>
       <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
         <v>162</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
         <v>163</v>
       </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s">
-        <v>164</v>
-      </c>
       <c r="I41" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" t="s">
-        <v>165</v>
-      </c>
-      <c r="K41" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.001031398773193</v>
+        <v>6.002873420715332</v>
       </c>
       <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
         <v>166</v>
       </c>
-      <c r="C42" t="s">
+      <c r="I42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" t="s">
         <v>167</v>
       </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" t="s">
-        <v>110</v>
+      <c r="K42" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.998161315917969</v>
+        <v>6.001031398773193</v>
       </c>
       <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
         <v>169</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
         <v>170</v>
       </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s">
-        <v>171</v>
-      </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.996952056884766</v>
+        <v>5.99788236618042</v>
       </c>
       <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
         <v>172</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
         <v>173</v>
       </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s">
-        <v>174</v>
-      </c>
       <c r="I44" t="s">
-        <v>112</v>
-      </c>
-      <c r="J44" t="s">
-        <v>175</v>
-      </c>
-      <c r="K44" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.994616508483887</v>
+        <v>5.9966721534729</v>
       </c>
       <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
         <v>176</v>
       </c>
-      <c r="C45" t="s">
+      <c r="I45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" t="s">
-        <v>37</v>
+      <c r="K45" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.991514682769775</v>
+        <v>5.991326332092285</v>
       </c>
       <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
         <v>179</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
         <v>180</v>
       </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" t="s">
         <v>181</v>
       </c>
-      <c r="I46" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" t="s">
-        <v>182</v>
-      </c>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.971437454223633</v>
+        <v>5.977129936218262</v>
       </c>
       <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
         <v>183</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
         <v>184</v>
       </c>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
+        <v>118</v>
+      </c>
+      <c r="J47" t="s">
         <v>185</v>
       </c>
-      <c r="I47" t="s">
-        <v>186</v>
+      <c r="K47" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.949036121368408</v>
+        <v>5.971437454223633</v>
       </c>
       <c r="B48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" t="s">
         <v>187</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
         <v>188</v>
       </c>
-      <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>189</v>
-      </c>
-      <c r="I48" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" t="s">
-        <v>190</v>
-      </c>
-      <c r="K48" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.947681903839111</v>
+        <v>5.953794956207275</v>
       </c>
       <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
         <v>191</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
         <v>192</v>
       </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" t="s">
-        <v>193</v>
-      </c>
       <c r="I49" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.946218490600586</v>
+        <v>5.948723793029785</v>
       </c>
       <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
         <v>194</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
         <v>195</v>
       </c>
-      <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" t="s">
         <v>196</v>
       </c>
-      <c r="I50" t="s">
-        <v>37</v>
+      <c r="K50" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.937226295471191</v>
+        <v>5.947473049163818</v>
       </c>
       <c r="B51" t="s">
         <v>197</v>
@@ -3738,12 +3750,12 @@
         <v>199</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.924866676330566</v>
+        <v>5.936905860900879</v>
       </c>
       <c r="B52" t="s">
         <v>200</v>
@@ -3767,47 +3779,47 @@
         <v>202</v>
       </c>
       <c r="I52" t="s">
-        <v>112</v>
-      </c>
-      <c r="J52" t="s">
-        <v>203</v>
-      </c>
-      <c r="K52" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.916987419128418</v>
+        <v>5.925416469573975</v>
       </c>
       <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
         <v>204</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
         <v>205</v>
       </c>
-      <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" t="s">
         <v>206</v>
       </c>
-      <c r="I53" t="s">
-        <v>37</v>
+      <c r="K53" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.910329341888428</v>
+        <v>5.924646854400635</v>
       </c>
       <c r="B54" t="s">
         <v>207</v>
@@ -3831,18 +3843,18 @@
         <v>209</v>
       </c>
       <c r="I54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J54" t="s">
         <v>210</v>
       </c>
       <c r="K54" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.906101226806641</v>
+        <v>5.882019996643066</v>
       </c>
       <c r="B55" t="s">
         <v>211</v>
@@ -3871,7 +3883,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.88214111328125</v>
+        <v>5.874551773071289</v>
       </c>
       <c r="B56" t="s">
         <v>214</v>
@@ -3900,7 +3912,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.874675273895264</v>
+        <v>5.866827487945557</v>
       </c>
       <c r="B57" t="s">
         <v>217</v>
@@ -3929,7 +3941,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.866702079772949</v>
+        <v>5.855364799499512</v>
       </c>
       <c r="B58" t="s">
         <v>220</v>
@@ -3958,7 +3970,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.8556227684021</v>
+        <v>5.851605415344238</v>
       </c>
       <c r="B59" t="s">
         <v>223</v>
@@ -3987,7 +3999,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.851865768432617</v>
+        <v>5.84597110748291</v>
       </c>
       <c r="B60" t="s">
         <v>226</v>
@@ -4016,7 +4028,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.846366882324219</v>
+        <v>5.840663433074951</v>
       </c>
       <c r="B61" t="s">
         <v>229</v>
@@ -4045,7 +4057,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.840930461883545</v>
+        <v>5.838924407958984</v>
       </c>
       <c r="B62" t="s">
         <v>232</v>
@@ -4074,7 +4086,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.8391923904418945</v>
+        <v>5.822116374969482</v>
       </c>
       <c r="B63" t="s">
         <v>235</v>
@@ -4103,7 +4115,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.822394847869873</v>
+        <v>5.807522773742676</v>
       </c>
       <c r="B64" t="s">
         <v>238</v>
@@ -4127,18 +4139,30 @@
         <v>240</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>118</v>
+      </c>
+      <c r="J64" t="s">
+        <v>241</v>
+      </c>
+      <c r="K64" t="s">
+        <v>116</v>
+      </c>
+      <c r="L64" t="s">
+        <v>242</v>
+      </c>
+      <c r="M64" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.807954788208008</v>
+        <v>5.806946277618408</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -4153,33 +4177,27 @@
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I65" t="s">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="J65" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K65" t="s">
-        <v>112</v>
-      </c>
-      <c r="L65" t="s">
-        <v>246</v>
-      </c>
-      <c r="M65" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.8070902824401855</v>
+        <v>5.80186653137207</v>
       </c>
       <c r="B66" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -4194,27 +4212,27 @@
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I66" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="J66" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K66" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.802158355712891</v>
+        <v>5.799084186553955</v>
       </c>
       <c r="B67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
@@ -4229,21 +4247,15 @@
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I67" t="s">
-        <v>112</v>
-      </c>
-      <c r="J67" t="s">
-        <v>255</v>
-      </c>
-      <c r="K67" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.799524784088135</v>
+        <v>5.795543670654297</v>
       </c>
       <c r="B68" t="s">
         <v>256</v>
@@ -4272,7 +4284,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.795839786529541</v>
+        <v>5.787319660186768</v>
       </c>
       <c r="B69" t="s">
         <v>259</v>
@@ -4301,7 +4313,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.775537490844727</v>
+        <v>5.769131183624268</v>
       </c>
       <c r="B70" t="s">
         <v>262</v>
@@ -4330,7 +4342,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.769603252410889</v>
+        <v>5.7576470375061035</v>
       </c>
       <c r="B71" t="s">
         <v>265</v>
@@ -4359,7 +4371,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.769131183624268</v>
+        <v>5.751953125</v>
       </c>
       <c r="B72" t="s">
         <v>268</v>
@@ -4383,18 +4395,24 @@
         <v>270</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>118</v>
+      </c>
+      <c r="J72" t="s">
+        <v>271</v>
+      </c>
+      <c r="K72" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.752444267272949</v>
+        <v>5.7435197830200195</v>
       </c>
       <c r="B73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
         <v>27</v>
@@ -4409,27 +4427,27 @@
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I73" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K73" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.744020462036133</v>
+        <v>5.728744983673096</v>
       </c>
       <c r="B74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
@@ -4444,21 +4462,15 @@
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I74" t="s">
-        <v>110</v>
-      </c>
-      <c r="J74" t="s">
-        <v>278</v>
-      </c>
-      <c r="K74" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5.707322120666504</v>
+        <v>5.704591274261475</v>
       </c>
       <c r="B75" t="s">
         <v>279</v>
@@ -4487,7 +4499,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.704773902893066</v>
+        <v>5.70073938369751</v>
       </c>
       <c r="B76" t="s">
         <v>282</v>
@@ -4516,7 +4528,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5.701107501983643</v>
+        <v>5.6772685050964355</v>
       </c>
       <c r="B77" t="s">
         <v>285</v>
@@ -4545,7 +4557,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5.677657127380371</v>
+        <v>5.653689861297607</v>
       </c>
       <c r="B78" t="s">
         <v>288</v>
@@ -4569,12 +4581,12 @@
         <v>290</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5.653689861297607</v>
+        <v>5.639285087585449</v>
       </c>
       <c r="B79" t="s">
         <v>291</v>
@@ -4598,12 +4610,12 @@
         <v>293</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5.646651744842529</v>
+        <v>5.63416051864624</v>
       </c>
       <c r="B80" t="s">
         <v>294</v>
@@ -4627,12 +4639,12 @@
         <v>296</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.634590148925781</v>
+        <v>5.63416051864624</v>
       </c>
       <c r="B81" t="s">
         <v>297</v>
@@ -4661,7 +4673,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5.63416051864624</v>
+        <v>5.623726844787598</v>
       </c>
       <c r="B82" t="s">
         <v>300</v>
@@ -4690,7 +4702,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.624386310577393</v>
+        <v>5.621963024139404</v>
       </c>
       <c r="B83" t="s">
         <v>303</v>
@@ -4714,18 +4726,24 @@
         <v>305</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
+        <v>116</v>
+      </c>
+      <c r="J83" t="s">
+        <v>306</v>
+      </c>
+      <c r="K83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.622183799743652</v>
+        <v>5.616405010223389</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
@@ -4740,21 +4758,15 @@
         <v>27</v>
       </c>
       <c r="H84" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I84" t="s">
-        <v>112</v>
-      </c>
-      <c r="J84" t="s">
-        <v>309</v>
-      </c>
-      <c r="K84" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.621963024139404</v>
+        <v>5.609867572784424</v>
       </c>
       <c r="B85" t="s">
         <v>310</v>
@@ -4783,7 +4795,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.616852283477783</v>
+        <v>5.6059889793396</v>
       </c>
       <c r="B86" t="s">
         <v>313</v>
@@ -4812,7 +4824,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5.610321521759033</v>
+        <v>5.605530261993408</v>
       </c>
       <c r="B87" t="s">
         <v>316</v>
@@ -4841,7 +4853,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5.606446743011475</v>
+        <v>5.604611396789551</v>
       </c>
       <c r="B88" t="s">
         <v>319</v>
@@ -4870,7 +4882,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.605071067810059</v>
+        <v>5.601612567901611</v>
       </c>
       <c r="B89" t="s">
         <v>322</v>
@@ -4899,7 +4911,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.602075099945068</v>
+        <v>5.594140529632568</v>
       </c>
       <c r="B90" t="s">
         <v>325</v>
@@ -4928,7 +4940,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5.594376087188721</v>
+        <v>5.591067790985107</v>
       </c>
       <c r="B91" t="s">
         <v>328</v>
@@ -4986,7 +4998,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5.582444190979004</v>
+        <v>5.582201957702637</v>
       </c>
       <c r="B93" t="s">
         <v>334</v>
@@ -5015,7 +5027,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5.580018043518066</v>
+        <v>5.568429470062256</v>
       </c>
       <c r="B94" t="s">
         <v>337</v>
@@ -5039,18 +5051,24 @@
         <v>339</v>
       </c>
       <c r="I94" t="s">
-        <v>37</v>
+        <v>118</v>
+      </c>
+      <c r="J94" t="s">
+        <v>340</v>
+      </c>
+      <c r="K94" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.5689287185668945</v>
+        <v>5.568429470062256</v>
       </c>
       <c r="B95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C95" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D95" t="s">
         <v>27</v>
@@ -5065,21 +5083,15 @@
         <v>27</v>
       </c>
       <c r="H95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I95" t="s">
-        <v>110</v>
-      </c>
-      <c r="J95" t="s">
-        <v>343</v>
-      </c>
-      <c r="K95" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.5689287185668945</v>
+        <v>5.566425800323486</v>
       </c>
       <c r="B96" t="s">
         <v>344</v>
@@ -5103,12 +5115,12 @@
         <v>346</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.5674285888671875</v>
+        <v>5.566425800323486</v>
       </c>
       <c r="B97" t="s">
         <v>347</v>
@@ -5132,12 +5144,12 @@
         <v>349</v>
       </c>
       <c r="I97" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.5674285888671875</v>
+        <v>5.566174507141113</v>
       </c>
       <c r="B98" t="s">
         <v>350</v>
@@ -5161,12 +5173,12 @@
         <v>352</v>
       </c>
       <c r="I98" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.567178249359131</v>
+        <v>5.565671920776367</v>
       </c>
       <c r="B99" t="s">
         <v>353</v>
@@ -5190,12 +5202,12 @@
         <v>355</v>
       </c>
       <c r="I99" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.565671920776367</v>
+        <v>5.558828353881836</v>
       </c>
       <c r="B100" t="s">
         <v>356</v>
@@ -5224,7 +5236,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5.559849262237549</v>
+        <v>5.536014080047607</v>
       </c>
       <c r="B101" t="s">
         <v>359</v>
@@ -5253,7 +5265,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5.5365519523620605</v>
+        <v>5.535744667053223</v>
       </c>
       <c r="B102" t="s">
         <v>362</v>
@@ -5282,7 +5294,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5.5116496086120605</v>
+        <v>5.510794162750244</v>
       </c>
       <c r="B103" t="s">
         <v>365</v>
@@ -5340,7 +5352,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5.489148139953613</v>
+        <v>5.4885478019714355</v>
       </c>
       <c r="B105" t="s">
         <v>371</v>
@@ -5369,7 +5381,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5.481889724731445</v>
+        <v>5.481279373168945</v>
       </c>
       <c r="B106" t="s">
         <v>374</v>
@@ -5398,7 +5410,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5.476673603057861</v>
+        <v>5.447635650634766</v>
       </c>
       <c r="B107" t="s">
         <v>377</v>
@@ -5427,7 +5439,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.447965145111084</v>
+        <v>5.437282562255859</v>
       </c>
       <c r="B108" t="s">
         <v>380</v>
@@ -5456,7 +5468,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5.437620639801025</v>
+        <v>5.4318413734436035</v>
       </c>
       <c r="B109" t="s">
         <v>383</v>
@@ -5480,18 +5492,24 @@
         <v>385</v>
       </c>
       <c r="I109" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="J109" t="s">
+        <v>386</v>
+      </c>
+      <c r="K109" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.432183265686035</v>
+        <v>5.363409042358398</v>
       </c>
       <c r="B110" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C110" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -5506,21 +5524,15 @@
         <v>27</v>
       </c>
       <c r="H110" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
-      </c>
-      <c r="J110" t="s">
-        <v>389</v>
-      </c>
-      <c r="K110" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5.3642096519470215</v>
+        <v>5.346663951873779</v>
       </c>
       <c r="B111" t="s">
         <v>390</v>
@@ -5549,7 +5561,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5.347080230712891</v>
+        <v>5.336979866027832</v>
       </c>
       <c r="B112" t="s">
         <v>393</v>
@@ -5578,7 +5590,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5.337830543518066</v>
+        <v>5.320491313934326</v>
       </c>
       <c r="B113" t="s">
         <v>396</v>
@@ -5607,7 +5619,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.321374893188477</v>
+        <v>5.301507472991943</v>
       </c>
       <c r="B114" t="s">
         <v>399</v>
@@ -5631,12 +5643,12 @@
         <v>401</v>
       </c>
       <c r="I114" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.3010454177856445</v>
+        <v>5.289325714111328</v>
       </c>
       <c r="B115" t="s">
         <v>402</v>
@@ -5660,12 +5672,12 @@
         <v>404</v>
       </c>
       <c r="I115" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.2902750968933105</v>
+        <v>5.278257369995117</v>
       </c>
       <c r="B116" t="s">
         <v>405</v>
@@ -5689,18 +5701,18 @@
         <v>407</v>
       </c>
       <c r="I116" t="s">
-        <v>37</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5.278257369995117</v>
+        <v>5.258309364318848</v>
       </c>
       <c r="B117" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C117" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D117" t="s">
         <v>27</v>
@@ -5715,15 +5727,15 @@
         <v>27</v>
       </c>
       <c r="H117" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I117" t="s">
-        <v>411</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.258309364318848</v>
+        <v>5.088801860809326</v>
       </c>
       <c r="B118" t="s">
         <v>412</v>
@@ -5747,12 +5759,12 @@
         <v>414</v>
       </c>
       <c r="I118" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.090307235717773</v>
+        <v>4.91044282913208</v>
       </c>
       <c r="B119" t="s">
         <v>415</v>
@@ -5776,12 +5788,12 @@
         <v>417</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4.91044282913208</v>
+        <v>4.896581172943115</v>
       </c>
       <c r="B120" t="s">
         <v>418</v>
@@ -5805,12 +5817,12 @@
         <v>420</v>
       </c>
       <c r="I120" t="s">
-        <v>411</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4.897753715515137</v>
+        <v>4.798201560974121</v>
       </c>
       <c r="B121" t="s">
         <v>421</v>
@@ -5834,18 +5846,24 @@
         <v>423</v>
       </c>
       <c r="I121" t="s">
-        <v>110</v>
+        <v>189</v>
+      </c>
+      <c r="J121" t="s">
+        <v>424</v>
+      </c>
+      <c r="K121" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4.798201560974121</v>
+        <v>4.748335361480713</v>
       </c>
       <c r="B122" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C122" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D122" t="s">
         <v>27</v>
@@ -5860,21 +5878,15 @@
         <v>27</v>
       </c>
       <c r="H122" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I122" t="s">
-        <v>186</v>
-      </c>
-      <c r="J122" t="s">
-        <v>427</v>
-      </c>
-      <c r="K122" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.748335361480713</v>
+        <v>4.627232551574707</v>
       </c>
       <c r="B123" t="s">
         <v>429</v>
@@ -5898,12 +5910,12 @@
         <v>431</v>
       </c>
       <c r="I123" t="s">
-        <v>411</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4.627232551574707</v>
+        <v>4.61168098449707</v>
       </c>
       <c r="B124" t="s">
         <v>432</v>
@@ -5927,12 +5939,12 @@
         <v>434</v>
       </c>
       <c r="I124" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4.61168098449707</v>
+        <v>4.498641490936279</v>
       </c>
       <c r="B125" t="s">
         <v>435</v>
@@ -5956,12 +5968,12 @@
         <v>437</v>
       </c>
       <c r="I125" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.498641490936279</v>
+        <v>4.438969135284424</v>
       </c>
       <c r="B126" t="s">
         <v>438</v>
@@ -5985,12 +5997,12 @@
         <v>440</v>
       </c>
       <c r="I126" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.438969135284424</v>
+        <v>4.4111647605896</v>
       </c>
       <c r="B127" t="s">
         <v>441</v>
@@ -6014,12 +6026,12 @@
         <v>443</v>
       </c>
       <c r="I127" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.4111647605896</v>
+        <v>4.319605827331543</v>
       </c>
       <c r="B128" t="s">
         <v>444</v>
@@ -6043,12 +6055,12 @@
         <v>446</v>
       </c>
       <c r="I128" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.319605827331543</v>
+        <v>4.310650825500488</v>
       </c>
       <c r="B129" t="s">
         <v>447</v>
@@ -6072,7 +6084,7 @@
         <v>449</v>
       </c>
       <c r="I129" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130">
@@ -6101,7 +6113,7 @@
         <v>452</v>
       </c>
       <c r="I130" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131">
@@ -6130,7 +6142,7 @@
         <v>455</v>
       </c>
       <c r="I131" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132">
@@ -6159,7 +6171,7 @@
         <v>458</v>
       </c>
       <c r="I132" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133">
@@ -6188,12 +6200,12 @@
         <v>461</v>
       </c>
       <c r="I133" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4.310650825500488</v>
+        <v>4.306103229522705</v>
       </c>
       <c r="B134" t="s">
         <v>462</v>
@@ -6217,7 +6229,7 @@
         <v>464</v>
       </c>
       <c r="I134" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135">
@@ -6246,12 +6258,12 @@
         <v>467</v>
       </c>
       <c r="I135" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4.306103229522705</v>
+        <v>3.0273497104644775</v>
       </c>
       <c r="B136" t="s">
         <v>468</v>
@@ -6275,7 +6287,7 @@
         <v>470</v>
       </c>
       <c r="I136" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137">
@@ -6304,12 +6316,12 @@
         <v>473</v>
       </c>
       <c r="I137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.0273497104644775</v>
+        <v>2.9304397106170654</v>
       </c>
       <c r="B138" t="s">
         <v>474</v>
@@ -6333,7 +6345,7 @@
         <v>476</v>
       </c>
       <c r="I138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -6362,12 +6374,12 @@
         <v>479</v>
       </c>
       <c r="I139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.9304397106170654</v>
+        <v>2.8055007457733154</v>
       </c>
       <c r="B140" t="s">
         <v>480</v>
@@ -6391,12 +6403,12 @@
         <v>482</v>
       </c>
       <c r="I140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.8055007457733154</v>
+        <v>2.6294095516204834</v>
       </c>
       <c r="B141" t="s">
         <v>483</v>
@@ -6420,7 +6432,7 @@
         <v>485</v>
       </c>
       <c r="I141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142">
@@ -6449,12 +6461,12 @@
         <v>488</v>
       </c>
       <c r="I142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.6294095516204834</v>
+        <v>2.3283796310424805</v>
       </c>
       <c r="B143" t="s">
         <v>489</v>
@@ -6478,7 +6490,7 @@
         <v>491</v>
       </c>
       <c r="I143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -6507,7 +6519,7 @@
         <v>494</v>
       </c>
       <c r="I144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -6536,7 +6548,7 @@
         <v>497</v>
       </c>
       <c r="I145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -6565,7 +6577,7 @@
         <v>500</v>
       </c>
       <c r="I146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -6594,7 +6606,7 @@
         <v>503</v>
       </c>
       <c r="I147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -6623,7 +6635,7 @@
         <v>506</v>
       </c>
       <c r="I148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149">
@@ -6652,36 +6664,7 @@
         <v>509</v>
       </c>
       <c r="I149" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>2.3283796310424805</v>
-      </c>
-      <c r="B150" t="s">
-        <v>510</v>
-      </c>
-      <c r="C150" t="s">
-        <v>511</v>
-      </c>
-      <c r="D150" t="s">
-        <v>27</v>
-      </c>
-      <c r="E150" t="s">
-        <v>28</v>
-      </c>
-      <c r="F150" t="s">
-        <v>29</v>
-      </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
-      <c r="H150" t="s">
-        <v>512</v>
-      </c>
-      <c r="I150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6776,45 +6759,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.642794609069824</v>
+        <v>7.642630577087402</v>
       </c>
       <c r="B2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>513</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>514</v>
-      </c>
-      <c r="D2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>516</v>
-      </c>
-      <c r="I2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.60591983795166</v>
+        <v>7.605754852294922</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -6826,10 +6809,10 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4">
@@ -6837,13 +6820,13 @@
         <v>7.221730709075928</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -6855,24 +6838,24 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.073188781738281</v>
+        <v>7.072969913482666</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -6884,10 +6867,10 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6">
@@ -6895,13 +6878,13 @@
         <v>7.0692315101623535</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -6913,10 +6896,10 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -6924,13 +6907,13 @@
         <v>6.88817834854126</v>
       </c>
       <c r="B7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -6942,10 +6925,10 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -6953,13 +6936,13 @@
         <v>6.647485733032227</v>
       </c>
       <c r="B8" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -6971,24 +6954,24 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.545705795288086</v>
+        <v>6.532255172729492</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -7000,24 +6983,24 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.459227561950684</v>
+        <v>6.459259986877441</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -7029,96 +7012,67 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.007262229919434</v>
+        <v>5.995552062988281</v>
       </c>
       <c r="B11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>541</v>
+      </c>
+      <c r="I11" t="s">
         <v>542</v>
-      </c>
-      <c r="C11" t="s">
-        <v>543</v>
-      </c>
-      <c r="D11" t="s">
-        <v>515</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>544</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.995552062988281</v>
+        <v>5.855493545532227</v>
       </c>
       <c r="B12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D12" t="s">
+        <v>512</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
         <v>545</v>
       </c>
-      <c r="C12" t="s">
-        <v>546</v>
-      </c>
-      <c r="D12" t="s">
-        <v>515</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>547</v>
-      </c>
       <c r="I12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5.855493545532227</v>
-      </c>
-      <c r="B13" t="s">
-        <v>549</v>
-      </c>
-      <c r="C13" t="s">
-        <v>550</v>
-      </c>
-      <c r="D13" t="s">
-        <v>515</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>551</v>
-      </c>
-      <c r="I13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7217,13 +7171,13 @@
         <v>6.480055809020996</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -7235,7 +7189,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I2" t="s">
         <v>42</v>
@@ -7243,16 +7197,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.12105131149292</v>
+        <v>6.12182092666626</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -7264,24 +7218,24 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.026392936706543</v>
+        <v>6.024473667144775</v>
       </c>
       <c r="B4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -7293,24 +7247,24 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.8254475593566895</v>
+        <v>5.849909782409668</v>
       </c>
       <c r="B5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -7322,24 +7276,24 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="I5" t="s">
-        <v>566</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.745352745056152</v>
+        <v>5.826690196990967</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -7351,24 +7305,24 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.7228312492370605</v>
+        <v>5.74568510055542</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -7380,24 +7334,24 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.57364559173584</v>
+        <v>5.722130298614502</v>
       </c>
       <c r="B8" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C8" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D8" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -7409,24 +7363,24 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I8" t="s">
-        <v>562</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.499520778656006</v>
+        <v>5.57364559173584</v>
       </c>
       <c r="B9" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D9" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -7438,24 +7392,24 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.416515827178955</v>
+        <v>5.4933271408081055</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D10" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -7467,30 +7421,24 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" t="s">
-        <v>582</v>
-      </c>
-      <c r="K10" t="s">
-        <v>562</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.936905860900879</v>
+        <v>5.415450572967529</v>
       </c>
       <c r="B11" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C11" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D11" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -7502,10 +7450,45 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="I11" t="s">
-        <v>562</v>
+        <v>556</v>
+      </c>
+      <c r="J11" t="s">
+        <v>579</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4.937973976135254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" t="s">
+        <v>548</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I12" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -7600,31 +7583,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.549793720245361</v>
+        <v>6.5498199462890625</v>
       </c>
       <c r="B2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>586</v>
       </c>
-      <c r="C2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>589</v>
-      </c>
       <c r="I2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3">
@@ -7632,71 +7615,71 @@
         <v>6.411953926086426</v>
       </c>
       <c r="B3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I3" t="s">
         <v>590</v>
-      </c>
-      <c r="C3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" t="s">
-        <v>588</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>592</v>
-      </c>
-      <c r="I3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.110063076019287</v>
+        <v>6.113282203674316</v>
       </c>
       <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>593</v>
+      </c>
+      <c r="I4" t="s">
         <v>594</v>
-      </c>
-      <c r="C4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D4" t="s">
-        <v>588</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>596</v>
-      </c>
-      <c r="I4" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.084102153778076</v>
+        <v>6.091133117675781</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -7708,10 +7691,10 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
@@ -7719,13 +7702,13 @@
         <v>6.014926433563232</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -7737,24 +7720,24 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.946532249450684</v>
+        <v>5.947159767150879</v>
       </c>
       <c r="B7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -7766,24 +7749,24 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.939146041870117</v>
+        <v>5.946008682250977</v>
       </c>
       <c r="B8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D8" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -7795,24 +7778,24 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.921665668487549</v>
+        <v>5.940103054046631</v>
       </c>
       <c r="B9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -7824,24 +7807,24 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.884320259094238</v>
+        <v>5.8858866691589355</v>
       </c>
       <c r="B10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -7853,24 +7836,24 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.871951103210449</v>
+        <v>5.880195617675781</v>
       </c>
       <c r="B11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C11" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -7882,24 +7865,24 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I11" t="s">
-        <v>593</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.827516555786133</v>
+        <v>5.873067855834961</v>
       </c>
       <c r="B12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -7911,24 +7894,24 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I12" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.819040298461914</v>
+        <v>5.827516555786133</v>
       </c>
       <c r="B13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C13" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -7940,24 +7923,24 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.818197727203369</v>
+        <v>5.819040298461914</v>
       </c>
       <c r="B14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -7969,24 +7952,24 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.815942287445068</v>
+        <v>5.818197727203369</v>
       </c>
       <c r="B15" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C15" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D15" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -7998,24 +7981,24 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.815800666809082</v>
+        <v>5.815942287445068</v>
       </c>
       <c r="B16" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C16" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -8027,24 +8010,24 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I16" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.815093517303467</v>
+        <v>5.815800666809082</v>
       </c>
       <c r="B17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C17" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D17" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -8056,24 +8039,24 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I17" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.8149518966674805</v>
+        <v>5.815093517303467</v>
       </c>
       <c r="B18" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C18" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D18" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -8085,10 +8068,10 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I18" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19">
@@ -8096,13 +8079,13 @@
         <v>5.8149518966674805</v>
       </c>
       <c r="B19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -8114,24 +8097,24 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.814810276031494</v>
+        <v>5.8149518966674805</v>
       </c>
       <c r="B20" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C20" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D20" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -8143,24 +8126,24 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I20" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.81466817855835</v>
+        <v>5.814810276031494</v>
       </c>
       <c r="B21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D21" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -8172,24 +8155,24 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.804921627044678</v>
+        <v>5.81466817855835</v>
       </c>
       <c r="B22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D22" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -8201,24 +8184,24 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.690673351287842</v>
+        <v>5.80564546585083</v>
       </c>
       <c r="B23" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C23" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D23" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -8230,24 +8213,24 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I23" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.562390327453613</v>
+        <v>5.715056896209717</v>
       </c>
       <c r="B24" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C24" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D24" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -8259,24 +8242,24 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.543488025665283</v>
+        <v>5.544809341430664</v>
       </c>
       <c r="B25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D25" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -8288,24 +8271,24 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.531412601470947</v>
+        <v>5.534125328063965</v>
       </c>
       <c r="B26" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C26" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D26" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -8317,24 +8300,24 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I26" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.529503345489502</v>
+        <v>5.531140327453613</v>
       </c>
       <c r="B27" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C27" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D27" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
@@ -8346,24 +8329,24 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I27" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.528682708740234</v>
+        <v>5.530049800872803</v>
       </c>
       <c r="B28" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C28" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D28" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
@@ -8375,24 +8358,24 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.518431186676025</v>
+        <v>5.524002552032471</v>
       </c>
       <c r="B29" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C29" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D29" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
@@ -8404,10 +8387,10 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I29" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30">
@@ -8415,13 +8398,13 @@
         <v>5.501565933227539</v>
       </c>
       <c r="B30" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C30" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -8433,24 +8416,24 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I30" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.497466087341309</v>
+        <v>5.498347759246826</v>
       </c>
       <c r="B31" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C31" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D31" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -8462,24 +8445,24 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I31" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.496877193450928</v>
+        <v>5.49776029586792</v>
       </c>
       <c r="B32" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C32" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D32" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
@@ -8491,10 +8474,10 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33">
@@ -8502,13 +8485,13 @@
         <v>5.437620639801025</v>
       </c>
       <c r="B33" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C33" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D33" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
@@ -8520,39 +8503,68 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I33" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>4.9796576499938965</v>
+      </c>
+      <c r="B34" t="s">
+        <v>682</v>
+      </c>
+      <c r="C34" t="s">
+        <v>683</v>
+      </c>
+      <c r="D34" t="s">
+        <v>585</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>684</v>
+      </c>
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>4.808386325836182</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>685</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>686</v>
       </c>
-      <c r="D34" t="s">
-        <v>588</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="D35" t="s">
+        <v>585</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
         <v>687</v>
       </c>
-      <c r="I34" t="s">
-        <v>593</v>
+      <c r="I35" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -8645,6 +8657,35 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6.4074883460998535</v>
+      </c>
+      <c r="B2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>691</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
